--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_19.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_19.xlsx
@@ -512,193 +512,193 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998835834055347</v>
+        <v>0.9245759886688797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8275984305800796</v>
+        <v>0.7541490593937632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8191503778595477</v>
+        <v>0.6763159243938445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999750006725955</v>
+        <v>0.9615153208303535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004845871824159294</v>
+        <v>0.3139544607480013</v>
       </c>
       <c r="G2" t="n">
-        <v>1.152850088547241</v>
+        <v>1.644006371873395</v>
       </c>
       <c r="H2" t="n">
-        <v>0.646888612132803</v>
+        <v>1.157799170162157</v>
       </c>
       <c r="I2" t="n">
-        <v>9.733359001296696e-05</v>
+        <v>0.1511260608874065</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07282721046963431</v>
+        <v>1.566995929447343</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02201334100984967</v>
+        <v>0.5603163934314266</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007450662045777</v>
+        <v>0.8972949632937937</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02236002912548697</v>
+        <v>0.5691408165170686</v>
       </c>
       <c r="N2" t="n">
-        <v>145.2644263995087</v>
+        <v>36.31701466611327</v>
       </c>
       <c r="O2" t="n">
-        <v>286.599598942725</v>
+        <v>73.2815982543391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_1</t>
+          <t>model_1_19_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998861394399168</v>
+        <v>0.9264966089728767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8275042902948146</v>
+        <v>0.7541287809708819</v>
       </c>
       <c r="D3" t="n">
-        <v>0.818920668063934</v>
+        <v>0.6792738285773117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999785518556875</v>
+        <v>0.95961263910593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004739476210626982</v>
+        <v>0.305959827458135</v>
       </c>
       <c r="G3" t="n">
-        <v>1.153479605068284</v>
+        <v>1.644141973780576</v>
       </c>
       <c r="H3" t="n">
-        <v>0.647710270752374</v>
+        <v>1.147218918407033</v>
       </c>
       <c r="I3" t="n">
-        <v>8.350724206584758e-05</v>
+        <v>0.1585977301422557</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07261912062239614</v>
+        <v>1.561757477585956</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02177033810170844</v>
+        <v>0.5531363552128309</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007287075845326</v>
+        <v>0.8999102760481725</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0221131991644563</v>
+        <v>0.5618476998739351</v>
       </c>
       <c r="N3" t="n">
-        <v>145.3088274929247</v>
+        <v>36.36860293692931</v>
       </c>
       <c r="O3" t="n">
-        <v>286.6440000361411</v>
+        <v>73.33318652515513</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_2</t>
+          <t>model_1_19_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998920536069076</v>
+        <v>0.9266465714621001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8271894046663368</v>
+        <v>0.7541261673589608</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8183321141779922</v>
+        <v>0.6795132147968735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999806360147233</v>
+        <v>0.959439056710611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004493297430741724</v>
+        <v>0.3053356045932192</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15558524671583</v>
+        <v>1.644159451015527</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6498154938760726</v>
+        <v>1.146362647780071</v>
       </c>
       <c r="I4" t="n">
-        <v>7.539267650839581e-05</v>
+        <v>0.1592793734405748</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07053227718098611</v>
+        <v>1.561354016361788</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02119739944130346</v>
+        <v>0.5525718094449075</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006908569157915</v>
+        <v>0.9001144802888171</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02153123729287849</v>
+        <v>0.5612742630745056</v>
       </c>
       <c r="N4" t="n">
-        <v>145.4155070907661</v>
+        <v>36.37268752875941</v>
       </c>
       <c r="O4" t="n">
-        <v>286.7506796339825</v>
+        <v>73.33727111698522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_9</t>
+          <t>model_1_19_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999891427560174</v>
+        <v>0.9267927860843478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8270994858067245</v>
+        <v>0.7541167248548417</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8174721821457176</v>
+        <v>0.6797478272093556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997126361145803</v>
+        <v>0.9592653499784718</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004519356793159055</v>
+        <v>0.3047269823246456</v>
       </c>
       <c r="G5" t="n">
-        <v>1.156186534544096</v>
+        <v>1.64422259308405</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6528914208937949</v>
+        <v>1.145523452784232</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001118836445292631</v>
+        <v>0.1599615049990092</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04667599920896912</v>
+        <v>1.560963043112092</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02125877887640552</v>
+        <v>0.5520208169305263</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006948636148863</v>
+        <v>0.9003135810510268</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02159358339272648</v>
+        <v>0.5607145929788132</v>
       </c>
       <c r="N5" t="n">
-        <v>145.4039413813128</v>
+        <v>36.3766780863418</v>
       </c>
       <c r="O5" t="n">
-        <v>286.7391139245292</v>
+        <v>73.34126167456763</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999001009631415</v>
+        <v>0.926342860289857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8268350225463281</v>
+        <v>0.7541093277854293</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8175526580323376</v>
+        <v>0.6790298091810681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999654466862264</v>
+        <v>0.959786269918442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004158324079112004</v>
+        <v>0.3065998104558071</v>
       </c>
       <c r="G6" t="n">
-        <v>1.157955001584108</v>
+        <v>1.644272057321271</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6526035633136156</v>
+        <v>1.148091761638339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001345315424691258</v>
+        <v>0.1579158967137388</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06675311861982389</v>
+        <v>1.56217091466274</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02039196920140868</v>
+        <v>0.5537145568393584</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006393538358942</v>
+        <v>0.8997009161393797</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02071312233184022</v>
+        <v>0.5624350075980908</v>
       </c>
       <c r="N6" t="n">
-        <v>145.5704564889465</v>
+        <v>36.3644238615158</v>
       </c>
       <c r="O6" t="n">
-        <v>286.9056290321629</v>
+        <v>73.32900744974162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_5</t>
+          <t>model_1_19_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998967035355292</v>
+        <v>0.9261851927858769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8267687208664382</v>
+        <v>0.7541041966289257</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8165482592662773</v>
+        <v>0.6787809740325452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998771281362273</v>
+        <v>0.9599597454158687</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004299742910482806</v>
+        <v>0.3072561056503476</v>
       </c>
       <c r="G7" t="n">
-        <v>1.158398361222824</v>
+        <v>1.644306369388438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6561962394614265</v>
+        <v>1.148981830536314</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004783952551628479</v>
+        <v>0.1572346731943478</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06543207700080476</v>
+        <v>1.562597598163294</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02073582144619018</v>
+        <v>0.5543068695680647</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006610973726133</v>
+        <v>0.8994862199637472</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02106238990575088</v>
+        <v>0.5630366486601788</v>
       </c>
       <c r="N7" t="n">
-        <v>145.5035702786477</v>
+        <v>36.36014731760782</v>
       </c>
       <c r="O7" t="n">
-        <v>286.8387428218641</v>
+        <v>73.32473090583363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_6</t>
+          <t>model_1_19_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999026832785043</v>
+        <v>0.9269354163692651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8267175250620798</v>
+        <v>0.7540461544839332</v>
       </c>
       <c r="D8" t="n">
-        <v>0.81627407396902</v>
+        <v>0.6799781115470582</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999868363534407</v>
+        <v>0.9590917450511202</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004050834512742774</v>
+        <v>0.3041332799559002</v>
       </c>
       <c r="G8" t="n">
-        <v>1.158740707802303</v>
+        <v>1.644694497479262</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6571769843715389</v>
+        <v>1.144699739060923</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000512519779650995</v>
+        <v>0.1606432367787038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06234021769979414</v>
+        <v>1.560585578819319</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02012668505428247</v>
+        <v>0.5514828011424292</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006228270175725</v>
+        <v>0.9005078010134674</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02044366022458363</v>
+        <v>0.5601681039798722</v>
       </c>
       <c r="N8" t="n">
-        <v>145.6228349191091</v>
+        <v>36.38057850549343</v>
       </c>
       <c r="O8" t="n">
-        <v>286.9580074623255</v>
+        <v>73.34516209371925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_7</t>
+          <t>model_1_19_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999017028559265</v>
+        <v>0.9278384750946483</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8266454135849051</v>
+        <v>0.7539614272616755</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8160853718050971</v>
+        <v>0.681467741957194</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998573220610721</v>
+        <v>0.9578775510069949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004091644864285254</v>
+        <v>0.3003742739026851</v>
       </c>
       <c r="G9" t="n">
-        <v>1.159222917582213</v>
+        <v>1.645261068804633</v>
       </c>
       <c r="H9" t="n">
-        <v>0.657851961070311</v>
+        <v>1.139371417457601</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0005555091857787696</v>
+        <v>0.1654112734883961</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06201651960246361</v>
+        <v>1.558570358678296</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02022781467258699</v>
+        <v>0.5480641147737052</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006291017220704</v>
+        <v>0.9017374980012233</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02054638253328391</v>
+        <v>0.5566955767182734</v>
       </c>
       <c r="N9" t="n">
-        <v>145.6027866309243</v>
+        <v>36.40545200446236</v>
       </c>
       <c r="O9" t="n">
-        <v>286.9379591741407</v>
+        <v>73.37003559268818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_4</t>
+          <t>model_1_19_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999001528649105</v>
+        <v>0.9280680987013388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8266347107985887</v>
+        <v>0.7539606311492264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8168877390729009</v>
+        <v>0.6818563265045864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999184492863394</v>
+        <v>0.9575315484091123</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004156163654122883</v>
+        <v>0.2994184595096132</v>
       </c>
       <c r="G10" t="n">
-        <v>1.159294487163592</v>
+        <v>1.645266392412245</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6549819398773037</v>
+        <v>1.137981473063005</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003175134914737424</v>
+        <v>0.166769996252962</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06545067887919598</v>
+        <v>1.558138343435446</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02038667126855898</v>
+        <v>0.5471914285783479</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006390216645727</v>
+        <v>0.9020501769550145</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02070774096184413</v>
+        <v>0.5558091465877053</v>
       </c>
       <c r="N10" t="n">
-        <v>145.5714958434357</v>
+        <v>36.41182630777695</v>
       </c>
       <c r="O10" t="n">
-        <v>286.9066683866521</v>
+        <v>73.37640989600277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_19_8</t>
+          <t>model_1_19_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998965410172637</v>
+        <v>0.9260236111825445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8262253397662654</v>
+        <v>0.7539211989188372</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8157946202565582</v>
+        <v>0.6785274872269247</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997801216661251</v>
+        <v>0.9601332190054204</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004306507776673693</v>
+        <v>0.3079286933879355</v>
       </c>
       <c r="G11" t="n">
-        <v>1.162031953141718</v>
+        <v>1.645530075918427</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6588919625006906</v>
+        <v>1.14988853814201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008560849360388968</v>
+        <v>0.1565534571670198</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05894389006656568</v>
+        <v>1.563034391806843</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02075212706368601</v>
+        <v>0.5549132305035946</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006621374895126</v>
+        <v>0.899266193950699</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02107895232042263</v>
+        <v>0.5636525591743047</v>
       </c>
       <c r="N11" t="n">
-        <v>145.5004261138633</v>
+        <v>36.35577407557305</v>
       </c>
       <c r="O11" t="n">
-        <v>286.8355986570797</v>
+        <v>73.32035766379887</v>
       </c>
     </row>
   </sheetData>
